--- a/src/main/resources/commissionTestCases.xlsx
+++ b/src/main/resources/commissionTestCases.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A15C5A4-82DA-4604-9911-FD6EC3B3E5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECDC27-2345-4264-AA9C-556DB5EAE46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +61,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.0</t>
+    <t>650.0</t>
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>655.0</t>
+  </si>
+  <si>
+    <t>990.0</t>
+  </si>
+  <si>
+    <t>995.0</t>
+  </si>
+  <si>
+    <t>586.0</t>
+  </si>
+  <si>
+    <t>592.0</t>
+  </si>
+  <si>
+    <t>1054.0</t>
+  </si>
+  <si>
+    <t>424.0</t>
+  </si>
+  <si>
+    <t>433.0</t>
+  </si>
+  <si>
+    <t>1216.0</t>
+  </si>
+  <si>
+    <t>1225.0</t>
+  </si>
+  <si>
+    <t>820.0</t>
+  </si>
+  <si>
+    <t>1060.0</t>
+  </si>
+  <si>
+    <t>650.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>655.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>990.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>995.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>586.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>592.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1054.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>424.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>433.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1225.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1216.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>820.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1060.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -102,8 +199,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -384,13 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" style="1" width="9.0" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -405,7 +506,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -420,22 +521,298 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>89</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>35</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/commissionTestCases.xlsx
+++ b/src/main/resources/commissionTestCases.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECDC27-2345-4264-AA9C-556DB5EAE46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FF4432-180B-4239-8FA7-7B51B77EBECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,107 +62,61 @@
   </si>
   <si>
     <t>650.0</t>
-  </si>
-  <si>
-    <t>fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>655.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>990.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>995.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>586.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>592.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1054.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>424.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>433.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1225.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1216.0</t>
-  </si>
-  <si>
-    <t>1225.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>820.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1060.0</t>
-  </si>
-  <si>
-    <t>650.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>655.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>990.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>995.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>586.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>592.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1054.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>424.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>433.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1225.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1216.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>820.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1060.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,12 +439,12 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -530,13 +484,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -553,13 +501,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -576,13 +518,7 @@
         <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -599,13 +535,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -622,13 +552,7 @@
         <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -645,13 +569,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -668,13 +586,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -691,13 +603,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -714,13 +620,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -737,13 +637,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -760,13 +654,7 @@
         <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -783,13 +671,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -806,13 +688,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
